--- a/medicine/Enfance/Colette_Vivier/Colette_Vivier.xlsx
+++ b/medicine/Enfance/Colette_Vivier/Colette_Vivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colette Vivier (née Colette Lejeune[1] le 4 juillet 1898 à Paris et morte dans cette même ville[2] le 9 septembre 1979) est un auteur de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colette Vivier (née Colette Lejeune le 4 juillet 1898 à Paris et morte dans cette même ville le 9 septembre 1979) est un auteur de littérature d'enfance et de jeunesse.
 Elle commence à publier ses romans dans les années 1930. Ses premiers textes étaient destinés à apprendre le français à des enfants allemands. Son roman La Maison des petits bonheurs obtient le Prix Jeunesse en 1939. Dans les années 1940, elle écrit pour l’Almanach du gai savoir pour enfants.
-Elle a épousé en 1925 Jean Duval[3], professeur agrégé de lettres, dont elle a partagé les activités clandestines pendant l'Occupation, et dont elle a eu un fils, André[4].
+Elle a épousé en 1925 Jean Duval, professeur agrégé de lettres, dont elle a partagé les activités clandestines pendant l'Occupation, et dont elle a eu un fils, André.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1932 : La Maison sens dessus dessous, Hachette, collection Bibliothèque rose illustrée, illustrations de André Pécoud, roman, 249 p.
 1932 : Cinq Petites Filles. Éditeur : Firmin-Didot, illustrations de Geneviève Sandrin, 208 p.
@@ -579,11 +593,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1939 : Prix Jeunesse
-1972 : (international) « Hightly Commended Authors »[5], par l' IBBY, pour l'ensemble de son œuvre
-1974 : (international) « Hightly Commended Authors »[5], par l' IBBY, pour l'ensemble de son œuvre</t>
+1972 : (international) « Hightly Commended Authors », par l' IBBY, pour l'ensemble de son œuvre
+1974 : (international) « Hightly Commended Authors », par l' IBBY, pour l'ensemble de son œuvre</t>
         </is>
       </c>
     </row>
@@ -611,9 +627,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs bibliothèques pour enfants portent le nom de Colette Vivier[6] (à Maromme, à Saint-Jean-de-la-Ruelle). La bibliothèque Brochant, dans le 17e arrondissement de Paris, a été renommée Bibliothèque Colette Vivier en 2010.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs bibliothèques pour enfants portent le nom de Colette Vivier (à Maromme, à Saint-Jean-de-la-Ruelle). La bibliothèque Brochant, dans le 17e arrondissement de Paris, a été renommée Bibliothèque Colette Vivier en 2010.
 </t>
         </is>
       </c>
